--- a/result_with_predictions.xlsx
+++ b/result_with_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,105 +537,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>meditating serene lake finding inner peace</t>
+          <t>laughter best medicineenjoying comedy show</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44604.76388888889</v>
+        <v>44970.8125</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ZenMaster2</t>
+          <t>ComedyFan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['#Serenity', '#Meditation']</t>
+          <t>['#Joy', '#ComedyShow']</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>44604.76388888889</v>
+        <v>44970.8125</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>44604</v>
+        <v>44970</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>18:20:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>serenity found page favorite book</t>
+          <t>laughter key joyattending standup comedy show</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>40808.8125</v>
+        <v>44979.8125</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BookLover3</t>
+          <t>StandUpFan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['#Serenity', '#BookTime']</t>
+          <t>['#Joy', '#StandUpComedy']</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -646,14 +646,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>22</v>
@@ -662,10 +662,10 @@
         <v>19</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>40808.8125</v>
+        <v>44979.8125</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>40808</v>
+        <v>44979</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -673,235 +673,235 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>serenity found melody peaceful piano</t>
+          <t>dancing sunshine step celebration joy found simple moment</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>42581.75694444445</v>
+        <v>44428.65625</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MusicLover4</t>
+          <t>SunshineDancer</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['#Serenity', '#PeacefulMelody']</t>
+          <t>['#Joy', '#SimpleMoments']</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>42581.75694444445</v>
+        <v>44428.65625</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>42581</v>
+        <v>44428</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>serenity found beauty sunset sea</t>
+          <t>overflowing joy cup laughter shared friend moment cherished</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>40746.77083333334</v>
+        <v>44995.60416666666</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SunsetWatcher2</t>
+          <t>LaughterCup</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['#Serenity', '#SunsetViews']</t>
+          <t>['#Joy', '#CherishedMoment']</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>40746.77083333334</v>
+        <v>44995.60416666666</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>40746</v>
+        <v>44995</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="Q5" t="n">
         <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>serenity found stillness nature tranquil retreat chaos modern world</t>
+          <t>surrounded color joy canvas painted laughter endless smile</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44380.79166666666</v>
+        <v>43648.70833333334</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NatureSoul</t>
+          <t>ColorfulLaughter</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['#Serenity', '#NatureRetreat']</t>
+          <t>['#Joy', '#EndlessSmiles']</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="K6" t="n">
         <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>44380.79166666666</v>
+        <v>43648.70833333334</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>44380</v>
+        <v>43648</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -912,20 +912,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tranquil moment ocean serenity washing peaceful retreat within wave embrace</t>
+          <t>amidst tulip field keukenhof tapestry color paint soul springtime joy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>43933.8125</v>
+        <v>44288.76388888889</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OceanSoul</t>
+          <t>KeukenhofAdventurer</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -935,48 +935,48 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['#Serenity', '#OceanRetreat']</t>
+          <t>['#Joy', '#SpringtimeColors']</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>43933.8125</v>
+        <v>44288.76388888889</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>43933</v>
+        <v>44288</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>18:20:00</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -987,20 +987,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>basking serenity quiet forest whisper nature bring peace soul</t>
+          <t>immersed pulsating beat bruno mar concert uptown funk becomes city joy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>43889.77083333334</v>
+        <v>42822.85416666666</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ForestDreamer</t>
+          <t>MarsJoyExplorer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['#Serenity', '#NatureWhispers']</t>
+          <t>['#Joy', '#BrunoMars']</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1025,635 +1025,110 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>28</v>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>43889.77083333334</v>
+        <v>42822.85416666666</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>43889</v>
+        <v>42822</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>seeking serenity melody raindrop tranquil escape noise everyday life</t>
+          <t>celebrating historic victory world cup nation erupts joy united triumph football team</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Serenity</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>43933.8125</v>
+        <v>43296.89583333334</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RaindropHarmony</t>
+          <t>FootballFanWorldCupCelebration</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['#Serenity', '#RaindropMelody']</t>
+          <t>['#Joy', '#WorldCupTriumph']</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>43933.8125</v>
+        <v>43296.89583333334</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>43933</v>
+        <v>43296</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" t="n">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="S9" t="inlineStr">
-        <is>
-          <t>neutre</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>immerse serenity moonlit night quiet whisper nature bring peace soul</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Serenity</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>43963.8125</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MoonlitSoul</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['#Serenity', '#MoonlitPeace']</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>25</v>
-      </c>
-      <c r="H10" t="n">
-        <v>50</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>2020</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>12</v>
-      </c>
-      <c r="M10" t="n">
-        <v>19</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>43963.8125</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>43963</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>166</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>neutre</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>lost symphony night moonlit serenade whisper tale wanderlust moonlit dream</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Serenity</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44324.91666666666</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>NightSerenader</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['#Serenity', '#MoonlitSerenade']</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>13</v>
-      </c>
-      <c r="H11" t="n">
-        <v>26</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>2021</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>8</v>
-      </c>
-      <c r="M11" t="n">
-        <v>22</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>44324.91666666666</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>44324</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>166</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>neutre</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>captivated serenity tranquil garden full bloom</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Serenity</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>43232.59722222222</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GardenEnthusiast</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['#Serenity', '#TranquilGarden']</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>22</v>
-      </c>
-      <c r="H12" t="n">
-        <v>45</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>2018</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>12</v>
-      </c>
-      <c r="M12" t="n">
-        <v>14</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>43232.59722222222</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>43232</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>14:20:00</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>166</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>positif</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>awash serenity sun set tranquil lakeside retreat</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Serenity</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44155.78125</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>LakesideRetreater</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['#Serenity', '#TranquilSunset']</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>28</v>
-      </c>
-      <c r="H13" t="n">
-        <v>55</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>2020</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11</v>
-      </c>
-      <c r="L13" t="n">
-        <v>20</v>
-      </c>
-      <c r="M13" t="n">
-        <v>18</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>44155.78125</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>44155</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>18:45:00</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>166</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>neutre</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>journeying serenity santorini sunset paint sky hue tranquility</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Serenity</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>42623.80208333334</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SantoriniTraveler</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>['#Serenity', '#SunsetHues']</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>22</v>
-      </c>
-      <c r="H14" t="n">
-        <v>45</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>2016</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>10</v>
-      </c>
-      <c r="M14" t="n">
-        <v>19</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>42623.80208333334</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>42623</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>19:15:00</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>166</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>neutre</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>sailing azure water maldives wave whisper serenity paradise</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Serenity</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>43766.59375</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>MaldivesSailor</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Facebook</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['#Serenity', '#ParadiseWhispers']</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>22</v>
-      </c>
-      <c r="H15" t="n">
-        <v>45</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Maldives</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>2019</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10</v>
-      </c>
-      <c r="L15" t="n">
-        <v>28</v>
-      </c>
-      <c r="M15" t="n">
-        <v>14</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>43766.59375</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>43766</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>14:15:00</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>166</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>neutre</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>swaying ed sheerans acoustic melody serene evening filled perfect moment</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Serenity</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>44061.79166666666</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SheeranMelodyLover</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>['#Serenity', '#EdSheeranConcert']</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>18</v>
-      </c>
-      <c r="H16" t="n">
-        <v>35</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>2020</v>
-      </c>
-      <c r="K16" t="n">
-        <v>8</v>
-      </c>
-      <c r="L16" t="n">
-        <v>18</v>
-      </c>
-      <c r="M16" t="n">
-        <v>19</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>44061.79166666666</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>44061</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>166</v>
-      </c>
-      <c r="S16" t="inlineStr">
         <is>
           <t>positif</t>
         </is>

--- a/result_with_predictions.xlsx
+++ b/result_with_predictions.xlsx
@@ -755,7 +755,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -8630,7 +8630,7 @@
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -9080,7 +9080,7 @@
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="S128" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -15530,7 +15530,7 @@
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -15980,7 +15980,7 @@
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -16955,7 +16955,7 @@
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -19430,7 +19430,7 @@
       </c>
       <c r="S253" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -19580,7 +19580,7 @@
       </c>
       <c r="S255" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
@@ -20255,7 +20255,7 @@
       </c>
       <c r="S264" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -23330,7 +23330,7 @@
       </c>
       <c r="S305" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
@@ -23705,7 +23705,7 @@
       </c>
       <c r="S310" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -24680,7 +24680,7 @@
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
@@ -24830,7 +24830,7 @@
       </c>
       <c r="S325" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -25355,7 +25355,7 @@
       </c>
       <c r="S332" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -25730,7 +25730,7 @@
       </c>
       <c r="S337" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -26630,7 +26630,7 @@
       </c>
       <c r="S349" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
@@ -28805,7 +28805,7 @@
       </c>
       <c r="S378" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -30305,7 +30305,7 @@
       </c>
       <c r="S398" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -30605,7 +30605,7 @@
       </c>
       <c r="S402" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -31205,7 +31205,7 @@
       </c>
       <c r="S410" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -32405,7 +32405,7 @@
       </c>
       <c r="S426" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -33230,7 +33230,7 @@
       </c>
       <c r="S437" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -33755,7 +33755,7 @@
       </c>
       <c r="S444" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
@@ -34355,7 +34355,7 @@
       </c>
       <c r="S452" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -34805,7 +34805,7 @@
       </c>
       <c r="S458" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -34880,7 +34880,7 @@
       </c>
       <c r="S459" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -36155,7 +36155,7 @@
       </c>
       <c r="S476" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
@@ -36455,7 +36455,7 @@
       </c>
       <c r="S480" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
@@ -37130,7 +37130,7 @@
       </c>
       <c r="S489" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
@@ -37205,7 +37205,7 @@
       </c>
       <c r="S490" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
@@ -38405,7 +38405,7 @@
       </c>
       <c r="S506" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -38855,7 +38855,7 @@
       </c>
       <c r="S512" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -39905,7 +39905,7 @@
       </c>
       <c r="S526" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
@@ -40505,7 +40505,7 @@
       </c>
       <c r="S534" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
@@ -41180,7 +41180,7 @@
       </c>
       <c r="S543" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -41480,7 +41480,7 @@
       </c>
       <c r="S547" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
@@ -42230,7 +42230,7 @@
       </c>
       <c r="S557" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
@@ -42680,7 +42680,7 @@
       </c>
       <c r="S563" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -43355,7 +43355,7 @@
       </c>
       <c r="S572" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -44255,7 +44255,7 @@
       </c>
       <c r="S584" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -44330,7 +44330,7 @@
       </c>
       <c r="S585" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -44705,7 +44705,7 @@
       </c>
       <c r="S590" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -45305,7 +45305,7 @@
       </c>
       <c r="S598" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -45530,7 +45530,7 @@
       </c>
       <c r="S601" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -45605,7 +45605,7 @@
       </c>
       <c r="S602" t="inlineStr">
         <is>
-          <t>négatif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -46130,7 +46130,7 @@
       </c>
       <c r="S609" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
@@ -48080,7 +48080,7 @@
       </c>
       <c r="S635" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
@@ -48605,7 +48605,7 @@
       </c>
       <c r="S642" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
@@ -48905,7 +48905,7 @@
       </c>
       <c r="S646" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -49205,7 +49205,7 @@
       </c>
       <c r="S650" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>négatif</t>
         </is>
       </c>
     </row>
@@ -49430,7 +49430,7 @@
       </c>
       <c r="S653" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -49655,7 +49655,7 @@
       </c>
       <c r="S656" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
@@ -50555,7 +50555,7 @@
       </c>
       <c r="S668" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
@@ -51005,7 +51005,7 @@
       </c>
       <c r="S674" t="inlineStr">
         <is>
-          <t>neutre</t>
+          <t>positif</t>
         </is>
       </c>
     </row>
@@ -52955,7 +52955,7 @@
       </c>
       <c r="S700" t="inlineStr">
         <is>
-          <t>positif</t>
+          <t>neutre</t>
         </is>
       </c>
     </row>
